--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1462.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1462.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.353185585734662</v>
+        <v>1.133226633071899</v>
       </c>
       <c r="B1">
-        <v>1.593054508407282</v>
+        <v>2.649789333343506</v>
       </c>
       <c r="C1">
-        <v>2.074041087568842</v>
+        <v>3.942341327667236</v>
       </c>
       <c r="D1">
-        <v>3.78715258247942</v>
+        <v>3.685919046401978</v>
       </c>
       <c r="E1">
-        <v>0.8469396972606429</v>
+        <v>1.234290599822998</v>
       </c>
     </row>
   </sheetData>
